--- a/data/vgp_database/Stoddard_Mountain_laccolith.xlsx
+++ b/data/vgp_database/Stoddard_Mountain_laccolith.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9337E-4E57-AD49-91C7-B30842399185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209D9F8F-435A-7F4E-BF92-958C77980E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="780" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="110">
   <si>
     <t>Name:</t>
   </si>
@@ -366,96 +366,6 @@
   </si>
   <si>
     <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004931</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004932</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004933</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004934</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004935</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004936</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004937</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004938</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004939</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004940</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004941</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004942</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004943</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004944</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004945</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004946</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004947</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004948</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004949</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004950</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004951</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004952</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004953</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004954</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004955</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004956</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004957</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004958</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004959</t>
-  </si>
-  <si>
-    <t>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004960</t>
   </si>
 </sst>
 </file>
@@ -868,7 +778,7 @@
   <dimension ref="A1:AQ993"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+      <selection activeCell="AP10" sqref="AP10:AP39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -903,7 +813,10 @@
     <col min="29" max="29" width="7.5" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
     <col min="31" max="31" width="9.6640625" customWidth="1"/>
-    <col min="32" max="43" width="10.5" customWidth="1"/>
+    <col min="32" max="37" width="10.5" customWidth="1"/>
+    <col min="38" max="38" width="19.6640625" customWidth="1"/>
+    <col min="39" max="39" width="30.33203125" customWidth="1"/>
+    <col min="40" max="43" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1659,8 +1572,9 @@
       <c r="AO10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP10" s="30" t="s">
-        <v>110</v>
+      <c r="AP10" s="30" t="str">
+        <f>AP9</f>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1767,8 +1681,9 @@
       <c r="AO11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP11" s="30" t="s">
-        <v>111</v>
+      <c r="AP11" s="30" t="str">
+        <f t="shared" ref="AP11:AP39" si="0">AP10</f>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ11" s="8"/>
     </row>
@@ -1876,8 +1791,9 @@
       <c r="AO12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP12" s="30" t="s">
-        <v>112</v>
+      <c r="AP12" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ12" s="8"/>
     </row>
@@ -1985,8 +1901,9 @@
       <c r="AO13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP13" s="30" t="s">
-        <v>113</v>
+      <c r="AP13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ13" s="8"/>
     </row>
@@ -2094,8 +2011,9 @@
       <c r="AO14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP14" s="30" t="s">
-        <v>114</v>
+      <c r="AP14" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ14" s="8"/>
     </row>
@@ -2207,8 +2125,9 @@
       <c r="AO15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP15" s="30" t="s">
-        <v>115</v>
+      <c r="AP15" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ15" s="8"/>
     </row>
@@ -2320,8 +2239,9 @@
       <c r="AO16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP16" s="30" t="s">
-        <v>116</v>
+      <c r="AP16" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ16" s="8"/>
     </row>
@@ -2433,8 +2353,9 @@
       <c r="AO17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP17" s="30" t="s">
-        <v>117</v>
+      <c r="AP17" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ17" s="8"/>
     </row>
@@ -2546,8 +2467,9 @@
       <c r="AO18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP18" s="30" t="s">
-        <v>118</v>
+      <c r="AP18" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ18" s="8"/>
     </row>
@@ -2655,8 +2577,9 @@
       <c r="AO19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP19" s="30" t="s">
-        <v>119</v>
+      <c r="AP19" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ19" s="8"/>
     </row>
@@ -2762,8 +2685,9 @@
       <c r="AO20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP20" s="30" t="s">
-        <v>120</v>
+      <c r="AP20" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ20" s="8"/>
     </row>
@@ -2869,8 +2793,9 @@
       <c r="AO21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP21" s="30" t="s">
-        <v>121</v>
+      <c r="AP21" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ21" s="8"/>
     </row>
@@ -2976,8 +2901,9 @@
       <c r="AO22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP22" s="30" t="s">
-        <v>122</v>
+      <c r="AP22" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ22" s="8"/>
     </row>
@@ -3085,8 +3011,9 @@
       <c r="AO23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP23" s="30" t="s">
-        <v>123</v>
+      <c r="AP23" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ23" s="8"/>
     </row>
@@ -3194,8 +3121,9 @@
       <c r="AO24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP24" s="30" t="s">
-        <v>124</v>
+      <c r="AP24" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ24" s="8"/>
     </row>
@@ -3307,8 +3235,9 @@
       <c r="AO25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP25" s="30" t="s">
-        <v>125</v>
+      <c r="AP25" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ25" s="8"/>
     </row>
@@ -3420,8 +3349,9 @@
       <c r="AO26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP26" s="30" t="s">
-        <v>126</v>
+      <c r="AP26" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ26" s="8"/>
     </row>
@@ -3529,8 +3459,9 @@
       <c r="AO27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP27" s="30" t="s">
-        <v>127</v>
+      <c r="AP27" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ27" s="8"/>
     </row>
@@ -3638,8 +3569,9 @@
       <c r="AO28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP28" s="30" t="s">
-        <v>128</v>
+      <c r="AP28" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
       <c r="AQ28" s="8"/>
     </row>
@@ -3747,8 +3679,9 @@
       <c r="AO29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP29" s="30" t="s">
-        <v>129</v>
+      <c r="AP29" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
     </row>
     <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3855,8 +3788,9 @@
       <c r="AO30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP30" s="30" t="s">
-        <v>130</v>
+      <c r="AP30" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3963,8 +3897,9 @@
       <c r="AO31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP31" s="30" t="s">
-        <v>131</v>
+      <c r="AP31" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
     </row>
     <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4075,8 +4010,9 @@
       <c r="AO32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP32" s="30" t="s">
-        <v>132</v>
+      <c r="AP32" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
     </row>
     <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4183,8 +4119,9 @@
       <c r="AO33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP33" s="30" t="s">
-        <v>133</v>
+      <c r="AP33" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
     </row>
     <row r="34" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4291,8 +4228,9 @@
       <c r="AO34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP34" s="30" t="s">
-        <v>134</v>
+      <c r="AP34" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
     </row>
     <row r="35" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4399,8 +4337,9 @@
       <c r="AO35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP35" s="30" t="s">
-        <v>135</v>
+      <c r="AP35" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
     </row>
     <row r="36" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4505,8 +4444,9 @@
       <c r="AO36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP36" s="30" t="s">
-        <v>136</v>
+      <c r="AP36" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
     </row>
     <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4613,8 +4553,9 @@
       <c r="AO37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP37" s="30" t="s">
-        <v>137</v>
+      <c r="AP37" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
     </row>
     <row r="38" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4719,8 +4660,9 @@
       <c r="AO38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP38" s="30" t="s">
-        <v>138</v>
+      <c r="AP38" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
     </row>
     <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4824,8 +4766,9 @@
       <c r="AN39" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AP39" s="30" t="s">
-        <v>139</v>
+      <c r="AP39" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1144/GSL.SP.2004.238.01.16:10.1002/2013GC004930</v>
       </c>
     </row>
     <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9165,7 +9108,6 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP9" r:id="rId1" display="https://doi.org/10.1144/GSL.SP.2004.238.01.16" xr:uid="{4566B30D-4F0E-8E4A-ACF2-E5BAE65EA855}"/>
-    <hyperlink ref="AP10:AP39" r:id="rId2" display="https://doi.org/10.1144/GSL.SP.2004.238.01.16" xr:uid="{3FE06A15-F929-6149-B556-CF97BF9124D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
